--- a/biology/Zoologie/Asteropseidae/Asteropseidae.xlsx
+++ b/biology/Zoologie/Asteropseidae/Asteropseidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asteropseidae constituent une famille d'étoiles de mer au sein de l'ordre des Valvatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une famille assez hétérogène, morphologiquement proche des Poraniidae (avec laquelle elle a longtemps été confondue), mais génétiquement distante (plus proche des Oreasteridae). La principale caractéristique externe est un épiderme assez épais[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une famille assez hétérogène, morphologiquement proche des Poraniidae (avec laquelle elle a longtemps été confondue), mais génétiquement distante (plus proche des Oreasteridae). La principale caractéristique externe est un épiderme assez épais. 
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 mars 2012) :
 genre Asteropsis Müller &amp; Troschel, 1840 -- 1 espèce
 genre Dermasterias Perrier, 1875 -- 1 espèce
 genre Petricia Gray, 1847 -- 2 espèces
 genre Poraniella Verrill, 1914 -- 1 espèce
 genre Valvaster Perrier, 1875 -- 1 espèce
-ITIS      (28 mars 2012)[3] ne reconnaît que le genre Asteropsis Müller &amp; Troschel, 1840.
+ITIS      (28 mars 2012) ne reconnaît que le genre Asteropsis Müller &amp; Troschel, 1840.
 			Asteropsis carinifera
 			Dermasterias imbricata
 			Petricia vernicina
